--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>07/09/18</t>
+    <t>07/11/18</t>
   </si>
 </sst>
 </file>
